--- a/biology/Botanique/Günther_von_Mannagetta_und_Lërchenau_Beck/Günther_von_Mannagetta_und_Lërchenau_Beck.xlsx
+++ b/biology/Botanique/Günther_von_Mannagetta_und_Lërchenau_Beck/Günther_von_Mannagetta_und_Lërchenau_Beck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%BCnther_von_Mannagetta_und_L%C3%ABrchenau_Beck</t>
+          <t>Günther_von_Mannagetta_und_Lërchenau_Beck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Günther von Mannagetta und Lërchenau Beck est un botaniste autrichien, né le 25 août 1856 à Presbourg et mort le 23 juin 1931 à Prague.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%BCnther_von_Mannagetta_und_L%C3%ABrchenau_Beck</t>
+          <t>Günther_von_Mannagetta_und_Lërchenau_Beck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est directeur du département de botanique du muséum d’histoire naturelle de Vienne et professeur à l’université de Vienne et à l'université Charles de Prague de 1899 à 1921.
 Beck dirige la publication de Wiener Illustrierten Gartenzeitung et est l’auteur de :
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%BCnther_von_Mannagetta_und_L%C3%ABrchenau_Beck</t>
+          <t>Günther_von_Mannagetta_und_Lërchenau_Beck</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Mannagettaea Harry Sm. porte le nom de Gunther Beck. (1933) de la famille de l'Orobanche (Orobanchaceae), ainsi que les espèces suivantes :
 Centaurea mannagettae Podp.
